--- a/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-30.xlsx
+++ b/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-30.xlsx
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.713</v>
+        <v>1713</v>
       </c>
       <c r="C2" t="n">
         <v>28</v>
@@ -441,7 +441,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>1.34</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.048999999999999</v>
+        <v>6049</v>
       </c>
       <c r="C3" t="n">
         <v>75</v>
@@ -472,7 +472,7 @@
         <v>91</v>
       </c>
       <c r="I3" t="n">
-        <v>5.193</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.829000000000001</v>
+        <v>8829</v>
       </c>
       <c r="C4" t="n">
         <v>204</v>
@@ -497,13 +497,13 @@
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.687</v>
+        <v>1687</v>
       </c>
       <c r="H4" t="n">
         <v>147</v>
       </c>
       <c r="I4" t="n">
-        <v>6.907</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.043</v>
+        <v>1043</v>
       </c>
       <c r="C5" t="n">
         <v>37</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.05</v>
+        <v>3050</v>
       </c>
       <c r="C6" t="n">
         <v>89</v>
@@ -565,7 +565,7 @@
         <v>23</v>
       </c>
       <c r="I6" t="n">
-        <v>2.343</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="7">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.752</v>
+        <v>11752</v>
       </c>
       <c r="C7" t="n">
         <v>211</v>
@@ -590,13 +590,13 @@
         <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>1.968</v>
+        <v>1968</v>
       </c>
       <c r="H7" t="n">
         <v>230</v>
       </c>
       <c r="I7" t="n">
-        <v>9.408999999999999</v>
+        <v>9409</v>
       </c>
     </row>
     <row r="8">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>219.151</v>
+        <v>219151</v>
       </c>
       <c r="C8" t="n">
-        <v>2.255</v>
+        <v>2255</v>
       </c>
       <c r="D8" t="n">
-        <v>1.759</v>
+        <v>1759</v>
       </c>
       <c r="E8" t="n">
         <v>203</v>
@@ -621,13 +621,13 @@
         <v>293</v>
       </c>
       <c r="G8" t="n">
-        <v>20.264</v>
+        <v>20264</v>
       </c>
       <c r="H8" t="n">
         <v>4889</v>
       </c>
       <c r="I8" t="n">
-        <v>194.094</v>
+        <v>194094</v>
       </c>
     </row>
     <row r="9">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.081</v>
+        <v>6081</v>
       </c>
       <c r="C9" t="n">
         <v>237</v>
@@ -652,13 +652,13 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.086</v>
+        <v>2086</v>
       </c>
       <c r="H9" t="n">
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>3.973</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="10">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.548999999999999</v>
+        <v>5549</v>
       </c>
       <c r="C10" t="n">
         <v>86</v>
@@ -683,13 +683,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>1.296</v>
+        <v>1296</v>
       </c>
       <c r="H10" t="n">
         <v>48</v>
       </c>
       <c r="I10" t="n">
-        <v>4.181999999999999</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="11">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.397</v>
+        <v>2397</v>
       </c>
       <c r="C11" t="n">
         <v>13</v>
@@ -720,7 +720,7 @@
         <v>32</v>
       </c>
       <c r="I11" t="n">
-        <v>2.021</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="12">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.697</v>
+        <v>6697</v>
       </c>
       <c r="C12" t="n">
         <v>102</v>
@@ -745,13 +745,13 @@
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>1.909</v>
+        <v>1909</v>
       </c>
       <c r="H12" t="n">
         <v>50</v>
       </c>
       <c r="I12" t="n">
-        <v>4.76</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="13">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.231</v>
+        <v>3231</v>
       </c>
       <c r="C13" t="n">
         <v>19</v>
@@ -782,7 +782,7 @@
         <v>41</v>
       </c>
       <c r="I13" t="n">
-        <v>2.922</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="14">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.656</v>
+        <v>1656</v>
       </c>
       <c r="C15" t="n">
         <v>14</v>
@@ -844,7 +844,7 @@
         <v>21</v>
       </c>
       <c r="I15" t="n">
-        <v>1.338</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="16">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.452</v>
+        <v>1452</v>
       </c>
       <c r="C17" t="n">
         <v>12</v>
@@ -906,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="I17" t="n">
-        <v>1.294</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="18">
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>279.393</v>
+        <v>279393</v>
       </c>
       <c r="C19" t="n">
-        <v>3.394</v>
+        <v>3394</v>
       </c>
       <c r="D19" t="n">
-        <v>2.69</v>
+        <v>2690</v>
       </c>
       <c r="E19" t="n">
         <v>338</v>
@@ -962,13 +962,13 @@
         <v>366</v>
       </c>
       <c r="G19" t="n">
-        <v>32.476</v>
+        <v>32476</v>
       </c>
       <c r="H19" t="n">
-        <v>5.688</v>
+        <v>5688</v>
       </c>
       <c r="I19" t="n">
-        <v>241.229</v>
+        <v>241229</v>
       </c>
     </row>
   </sheetData>
